--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167962.461397713</v>
+        <v>3169722.991700499</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012775</v>
+        <v>12445190.96012776</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8299547.527548914</v>
+        <v>8299547.527548913</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989967</v>
+        <v>212.4355068307158</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645088</v>
+        <v>12.83561175645085</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1395002752225901</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554914</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928079</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225839</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072437</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>193.1552931343061</v>
       </c>
       <c r="V3" t="n">
-        <v>191.0945930366913</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1699595597227</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404751</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.71351399772071</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.126250628425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,61 +904,61 @@
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
-        <v>124.0596109626757</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>173.3160116481447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>147.6357361135214</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.22544352993054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>148.2350264383957</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>95.81917536083792</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>148.0280580960842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.00502760852017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.92936329650534</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7971820797028</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833809</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428421</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569544</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2221392720401</v>
+        <v>839.6746487649696</v>
       </c>
       <c r="C2" t="n">
-        <v>40.99588452557865</v>
+        <v>573.448394018506</v>
       </c>
       <c r="D2" t="n">
-        <v>40.99588452557865</v>
+        <v>307.2221392720423</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557865</v>
+        <v>40.99588452557879</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637517</v>
+        <v>34.05038377637532</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701029</v>
+        <v>49.14994660701218</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164397</v>
+        <v>141.9503658164442</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780701</v>
+        <v>295.0195743965774</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988775</v>
+        <v>495.8504424173883</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053028</v>
+        <v>704.5447722238172</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280195965</v>
+        <v>888.2736487381144</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.540672547803</v>
+        <v>1010.580993266324</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.215648077472</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.115059427075</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="T2" t="n">
-        <v>839.6746487649627</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="U2" t="n">
-        <v>839.6746487649627</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="V2" t="n">
-        <v>839.6746487649627</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="W2" t="n">
-        <v>839.6746487649627</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="X2" t="n">
-        <v>839.6746487649627</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.4483940185014</v>
+        <v>1054.255968795996</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>477.81947471765</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="C3" t="n">
-        <v>303.366445436523</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="D3" t="n">
-        <v>303.366445436523</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="E3" t="n">
-        <v>303.366445436523</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="F3" t="n">
-        <v>303.366445436523</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966664</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668578</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="K3" t="n">
-        <v>101.3389075363538</v>
+        <v>192.5098291378317</v>
       </c>
       <c r="L3" t="n">
-        <v>247.9180468524847</v>
+        <v>339.0889684539649</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3258569153259</v>
+        <v>529.4967785168088</v>
       </c>
       <c r="N3" t="n">
-        <v>648.1818400501561</v>
+        <v>739.3527616516419</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271628</v>
+        <v>909.1101923271681</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280447</v>
+        <v>1026.022430280455</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158892</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158892</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="T3" t="n">
-        <v>839.0596531889213</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="U3" t="n">
-        <v>839.0596531889213</v>
+        <v>859.1496120946763</v>
       </c>
       <c r="V3" t="n">
-        <v>646.034811737718</v>
+        <v>859.1496120946763</v>
       </c>
       <c r="W3" t="n">
-        <v>646.034811737718</v>
+        <v>604.9122553664747</v>
       </c>
       <c r="X3" t="n">
-        <v>646.034811737718</v>
+        <v>397.0607551609419</v>
       </c>
       <c r="Y3" t="n">
-        <v>646.034811737718</v>
+        <v>189.3004563959879</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0510352985555</v>
+        <v>626.7255146862024</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1148523706486</v>
+        <v>457.7893317582955</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9982129583128</v>
+        <v>307.6726923459597</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591974</v>
+        <v>159.7595987635666</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591974</v>
+        <v>159.7595987635666</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591974</v>
+        <v>159.7595987635666</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591974</v>
+        <v>159.7595987635666</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591974</v>
+        <v>36.35559920829114</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591991</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953605</v>
+        <v>126.3272391953617</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735288</v>
+        <v>316.5273535735313</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559527</v>
+        <v>527.4558292559568</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656826</v>
+        <v>738.8035136568313</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005205</v>
+        <v>918.0010123005272</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485822</v>
+        <v>1047.81474748583</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795996</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795987</v>
+        <v>1036.36353041446</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.255968795987</v>
+        <v>1036.36353041446</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.255968795987</v>
+        <v>1036.36353041446</v>
       </c>
       <c r="X4" t="n">
-        <v>890.4920792723253</v>
+        <v>808.3739795164421</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.6995001287952</v>
+        <v>808.3739795164421</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>419.733006062639</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>419.733006062639</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>412.7875053134355</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4573,7 +4573,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>847.0040198004917</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2874698569806</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>905.7285138307504</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.9359346872203</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4886,25 +4886,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -5032,49 +5032,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770328</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
         <v>632.7243904253733</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750803</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072725</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972545</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211832</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.455065717131</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892241</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768884</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690901</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473707</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,37 +5518,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,13 +5840,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021787</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756786</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996073</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6502,7 +6502,7 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591807</v>
@@ -6536,13 +6536,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6928,10 +6928,10 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6940,10 +6940,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615996</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121667</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,10 +7444,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7456,7 +7456,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913851</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
         <v>1577.52840832642</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,10 +7663,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.050829008585424</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.6607783837877</v>
+        <v>60.60994937518589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362964</v>
+        <v>2.123866789361927</v>
       </c>
       <c r="K3" t="n">
-        <v>5.750191713919648</v>
+        <v>97.84203171541046</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.09184000149816</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.0213775686973</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.61478728573125</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.902616885432</v>
+        <v>176.3785887617862</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.81829093850959</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459315</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392801</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>43.72409101823416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729182.7369719116</v>
+        <v>729182.7369719112</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287552</v>
@@ -26337,22 +26337,22 @@
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163097</v>
+        <v>679693.2761163153</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389986499</v>
+        <v>373.9475389932935</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491362</v>
+        <v>68959.93717491487</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395623354</v>
+        <v>38.57632395568262</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756991</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.015607762</v>
+        <v>246846.0156077606</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26429,34 +26429,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731944</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731887</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731876</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732008</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732059</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732016</v>
+        <v>8117.312426732053</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.31242673212</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732017</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732055</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360362</v>
+        <v>63030.89693360386</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271158.640026427</v>
+        <v>-271158.6400264319</v>
       </c>
       <c r="C6" t="n">
-        <v>408235.9304897518</v>
+        <v>408235.9304897573</v>
       </c>
       <c r="D6" t="n">
         <v>100027.4121235964</v>
       </c>
       <c r="E6" t="n">
-        <v>89180.61159921288</v>
+        <v>89493.25292813485</v>
       </c>
       <c r="F6" t="n">
-        <v>596666.0532237591</v>
+        <v>596978.6945526802</v>
       </c>
       <c r="G6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="H6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="I6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="J6" t="n">
-        <v>527706.1160488453</v>
+        <v>528018.7573777656</v>
       </c>
       <c r="K6" t="n">
-        <v>596627.4768998034</v>
+        <v>596940.1182287246</v>
       </c>
       <c r="L6" t="n">
-        <v>501283.4070861898</v>
+        <v>501596.0484151104</v>
       </c>
       <c r="M6" t="n">
-        <v>464058.7594948325</v>
+        <v>464371.4008237544</v>
       </c>
       <c r="N6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="O6" t="n">
-        <v>596666.0532237589</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="P6" t="n">
-        <v>596666.0532237595</v>
+        <v>596978.6945526808</v>
       </c>
     </row>
   </sheetData>
@@ -26712,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472689</v>
+        <v>613.6975324726941</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26798,19 +26798,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.317477444681536e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472689</v>
+        <v>613.6975324726941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357481296789274</v>
+        <v>0.3574812967841581</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025093973</v>
+        <v>0.1498878025072372</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989961</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025091699</v>
+        <v>0.1498878025072372</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985334</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996086</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989989</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025093973</v>
+        <v>0.1498878025072372</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644838</v>
+        <v>170.2983348327648</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720108</v>
+        <v>101.7088995720086</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.11904942168405</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.3663778732629</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396429</v>
+        <v>314.2083504396426</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587342</v>
+        <v>115.3620237587334</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.6609410850071</v>
+        <v>152.8004413602292</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570568</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928068</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225801</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072369</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>147.1642178017448</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>32.69924495622445</v>
       </c>
       <c r="V3" t="n">
-        <v>41.705994112734</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,13 +27554,13 @@
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573037</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597229</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404817</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704495</v>
+        <v>127.5335881704491</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436559</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>268.5451516670515</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>63.58340476061213</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
+        <v>187.431034882095</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>288.7745636830343</v>
-      </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.36668412915964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>78.07391927551578</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.601094213676532e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.828467889119764e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.135816913051158e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.689185134571778e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684175</v>
+        <v>2.467125758684195</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612431</v>
+        <v>25.26645167612453</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167174</v>
+        <v>95.11386581167254</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611212</v>
+        <v>209.3942148611229</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262224</v>
+        <v>313.827648226225</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635533</v>
+        <v>389.3309481635565</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745529</v>
+        <v>433.2056958745566</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364144</v>
+        <v>440.2154169364181</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734986</v>
+        <v>415.6829351735021</v>
       </c>
       <c r="P2" t="n">
-        <v>354.775768005983</v>
+        <v>354.7757680059859</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731059</v>
+        <v>266.4218267731081</v>
       </c>
       <c r="R2" t="n">
-        <v>154.975588438945</v>
+        <v>154.9755884389462</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601569</v>
+        <v>56.21962822601616</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300863998</v>
+        <v>10.79984300864007</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197370060694734</v>
+        <v>0.1973700606947356</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752576</v>
+        <v>1.320028654752587</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721567</v>
+        <v>12.74869779721578</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915669</v>
+        <v>45.44835499915707</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773037</v>
+        <v>124.7137598773048</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457263</v>
+        <v>213.1556797457281</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628347</v>
+        <v>286.614116462837</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976154</v>
+        <v>334.4651551976182</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235659</v>
+        <v>343.3174526235688</v>
       </c>
       <c r="O3" t="n">
-        <v>314.068396641943</v>
+        <v>314.0683966419456</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641126</v>
+        <v>252.0675770641147</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592938</v>
+        <v>168.5004998592952</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191876</v>
+        <v>81.95756858191945</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209279</v>
+        <v>24.518953302093</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550952</v>
+        <v>5.320641814550997</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424848</v>
+        <v>0.0868439904442492</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508128</v>
+        <v>1.106667681508137</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135905</v>
+        <v>9.839281750135987</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753534</v>
+        <v>33.28051536753561</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262461</v>
+        <v>78.24140508262526</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606715</v>
+        <v>128.5746633606726</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943993</v>
+        <v>164.5313023944007</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840422</v>
+        <v>173.4751893840436</v>
       </c>
       <c r="N4" t="n">
-        <v>169.350337116603</v>
+        <v>169.3503371166044</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735307</v>
+        <v>156.422446473532</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707648</v>
+        <v>133.8464257707659</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337603</v>
+        <v>92.66832740337681</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320671998</v>
+        <v>49.75980320672039</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410073</v>
+        <v>19.28619950410089</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625635</v>
+        <v>4.728489184625674</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862521</v>
+        <v>0.06036369171862571</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286962</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950807</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551095</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32560,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>399.4395445221144</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>355.4083096598248</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551114</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.3483103344349</v>
+        <v>28.34831033443663</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124183</v>
+        <v>93.73779718124445</v>
       </c>
       <c r="L2" t="n">
-        <v>153.564533193566</v>
+        <v>154.6153622021547</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472802</v>
+        <v>202.8594626472838</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398235</v>
+        <v>210.8023533398272</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518119</v>
+        <v>185.5847237518153</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507134</v>
+        <v>123.5427722507164</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865638</v>
+        <v>44.1161368986586</v>
       </c>
       <c r="R2" t="n">
-        <v>1.050829008600527</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>81.06443248528699</v>
+        <v>173.1562724867796</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829605</v>
+        <v>148.0597366829629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755971</v>
+        <v>192.3311212755999</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402326</v>
+        <v>211.9757405402355</v>
       </c>
       <c r="O3" t="n">
-        <v>263.5639921989967</v>
+        <v>171.4721521975012</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497824</v>
+        <v>118.0931696497845</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327228</v>
+        <v>28.51872577327367</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347887</v>
+        <v>106.3051715347897</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547154</v>
+        <v>192.1213276547168</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458828</v>
+        <v>213.0590663458842</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958316</v>
+        <v>213.4825094958329</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875703</v>
+        <v>181.0075743875717</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356583</v>
+        <v>131.1249850356594</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681641</v>
+        <v>6.506284151682422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>373.0365088578703</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066779</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146268</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075048</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075054</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>265.4651371077842</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146272</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>213.2742757378065</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075244</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
